--- a/parser/devices.xlsx
+++ b/parser/devices.xlsx
@@ -1,42 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\go\src\test1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF23F5D5-2F7A-4A3A-B275-A5170EC0DCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CBC807-C923-4343-A00E-78CAFEE41C02}"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
-    <sheet name="devices" sheetId="1" r:id="rId1"/>
+    <sheet name="c_devices" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>yr</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{1FCE4624-EF6F-400D-99FF-7D23BD75A1BD}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -45,7 +33,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -56,13 +43,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{74ACEE7C-A682-4D65-A106-B6F9BF0EA7E2}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -71,7 +57,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -81,13 +66,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{53ADD8C7-1B32-4412-AC98-F51EB3FB1748}">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -96,7 +80,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -105,13 +88,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{BAD1DF97-E978-4EAA-A459-793E26A445EC}">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -120,7 +102,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -129,13 +110,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{14A48F9F-A827-40D8-B597-5E64F92B115F}">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -144,7 +124,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -160,269 +139,359 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
+    <t>设备sn号</t>
+  </si>
+  <si>
+    <t>设备ID</t>
+  </si>
+  <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备sn号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ip地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ipv6地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>经度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>安装地点行政区划代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>位置名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>管辖单位代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>车辆抓拍方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>监视方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>监视区域说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否在线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>所属采集系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>功能类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>摄像机位置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>ApeID</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApeID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IPAddr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IPV6Addr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Longitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PlaceCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Place</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OrgCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CapDirection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MonitorDirect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MonitorAreaDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IsOnline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OwnerApsID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FunctionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PositionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>omitempty</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float64</t>
   </si>
   <si>
     <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>omitempty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bbbbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TYPE_111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>192.168.101.170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>aa:bb:cc:dd:ee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成都</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>西向东方向监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gat1400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,8 +504,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -446,33 +701,275 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -489,33 +986,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -564,7 +1105,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -597,26 +1138,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -649,23 +1173,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -807,55 +1314,51 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16478F6C-072D-4DBA-A422-8EF83A8C94C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22:L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="16.375" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="19" width="10.5" customWidth="1"/>
+    <col min="20" max="20" width="12.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -912,18 +1415,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -977,139 +1480,139 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="O3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="3" t="s">
+      <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="3" t="s">
+      <c r="M4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="O4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="2" t="s">
+    <row r="5" spans="1:21">
+      <c r="A5" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>48</v>
@@ -1123,14 +1626,14 @@
       <c r="E5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="1">
         <v>12</v>
       </c>
       <c r="H5" s="1">
-        <v>12.333299999999999</v>
+        <v>12.3333</v>
       </c>
       <c r="I5" s="1">
         <v>13.22222</v>
@@ -1138,31 +1641,31 @@
       <c r="J5" s="1">
         <v>10101010</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>332211</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="6">
         <v>1</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>54</v>
       </c>
       <c r="P5" s="1">
         <v>1</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="7">
         <v>123456</v>
       </c>
       <c r="T5" s="1">
@@ -1173,9 +1676,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/parser/devices.xlsx
+++ b/parser/devices.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\go\src\chaosutil\parser\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E73B1CF-9853-44E7-AB7F-5561271CFECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="c_devices" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>yr</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>设备sn号</t>
   </si>
@@ -281,9 +287,6 @@
   </si>
   <si>
     <t>aaa</t>
-  </si>
-  <si>
-    <t>bbbbb</t>
   </si>
   <si>
     <t>测试机</t>
@@ -313,170 +316,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -490,8 +336,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,194 +356,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -725,251 +391,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,61 +426,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1314,21 +694,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22:L22"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
@@ -1350,7 +729,7 @@
     <col min="21" max="21" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1415,7 +794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1480,7 +859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -1545,7 +924,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1610,30 +989,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="G5" s="1">
         <v>12</v>
       </c>
       <c r="H5" s="1">
-        <v>12.3333</v>
+        <v>12.333299999999999</v>
       </c>
       <c r="I5" s="1">
         <v>13.22222</v>
@@ -1642,7 +1018,7 @@
         <v>10101010</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="6">
         <v>332211</v>
@@ -1654,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5" s="1">
         <v>1</v>
       </c>
       <c r="Q5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="S5" s="7">
         <v>123456</v>
@@ -1676,9 +1052,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/parser/devices.xlsx
+++ b/parser/devices.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\go\src\chaosutil\parser\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E73B1CF-9853-44E7-AB7F-5561271CFECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="c_devices" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>yr</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>设备sn号</t>
   </si>
@@ -280,15 +274,21 @@
     <t>string</t>
   </si>
   <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>float64</t>
-  </si>
-  <si>
     <t>aaa</t>
   </si>
   <si>
+    <t>a1111</t>
+  </si>
+  <si>
     <t>测试机</t>
   </si>
   <si>
@@ -311,18 +311,177 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>b2222</t>
+  </si>
+  <si>
+    <t>TYPE_222</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,14 +495,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,8 +509,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -391,9 +730,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -426,17 +1007,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -694,20 +1319,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
@@ -729,7 +1355,7 @@
     <col min="21" max="21" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -794,7 +1420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -859,7 +1485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -924,7 +1550,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -962,7 +1588,7 @@
         <v>44</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>44</v>
@@ -989,27 +1615,30 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1">
         <v>12</v>
       </c>
       <c r="H5" s="1">
-        <v>12.333299999999999</v>
+        <v>12.3333</v>
       </c>
       <c r="I5" s="1">
         <v>13.22222</v>
@@ -1018,7 +1647,7 @@
         <v>10101010</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L5" s="6">
         <v>332211</v>
@@ -1030,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P5" s="1">
         <v>1</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S5" s="7">
         <v>123456</v>
@@ -1051,10 +1680,75 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <v>12.3333</v>
+      </c>
+      <c r="I6" s="1">
+        <v>13.22222</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10101010</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="6">
+        <v>332211</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="7">
+        <v>123456</v>
+      </c>
+      <c r="T6" s="1">
+        <v>5</v>
+      </c>
+      <c r="U6" s="8">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>